--- a/dados/historico/times/rodada_26/Cruzeiro.xlsx
+++ b/dados/historico/times/rodada_26/Cruzeiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E3" t="n">
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E4" t="n">
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E5" t="n">
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E6" t="n">
+        <v>9</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E7" t="n">
+        <v>11</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E8" t="n">
+        <v>12</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2043,10 +2029,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E9" t="n">
+        <v>15</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2212,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2229,10 +2213,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E10" t="n">
+        <v>16</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2398,7 +2380,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2415,10 +2397,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E11" t="n">
+        <v>18</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2586,7 +2566,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2603,10 +2583,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E12" t="n">
+        <v>20</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2772,7 +2750,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2789,10 +2767,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E13" t="n">
+        <v>22</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2958,7 +2934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2975,10 +2951,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E14" t="n">
+        <v>25</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3144,7 +3118,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3161,10 +3135,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E15" t="n">
+        <v>3</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3332,7 +3304,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3349,10 +3321,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E16" t="n">
+        <v>21</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3520,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3537,10 +3507,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E17" t="n">
+        <v>19</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3708,7 +3676,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3725,10 +3693,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E18" t="n">
+        <v>8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3896,7 +3862,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3913,10 +3879,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E19" t="n">
+        <v>24</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4084,7 +4048,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4101,10 +4065,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E20" t="n">
+        <v>17</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4270,16 +4232,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-10-14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4287,10 +4249,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E21" t="n">
+        <v>26</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4319,25 +4279,23 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N21" t="n">
-        <v>54</v>
-      </c>
-      <c r="O21" t="n">
-        <v>23923</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>26.7</v>
+        <v>20</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -4355,22 +4313,22 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="Z21" t="n">
-        <v>-2</v>
+        <v>-0.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>-2</v>
+        <v>-0.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
         <v>100</v>
@@ -4379,95 +4337,95 @@
         <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="AH21" t="n">
-        <v>8624</v>
+        <v>6434</v>
       </c>
       <c r="AI21" t="n">
-        <v>2817</v>
+        <v>2158</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="AM21" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AN21" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AR21" t="n">
         <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
       </c>
       <c r="AX21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>8</v>
       </c>
-      <c r="AY21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>4</v>
-      </c>
       <c r="BA21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
         <v>0</v>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-04-16</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4475,14 +4433,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E22" t="n">
+        <v>13</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4492,14 +4448,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -4507,34 +4463,34 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="O22" t="n">
-        <v>41304</v>
+        <v>23923</v>
       </c>
       <c r="P22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>58.3</v>
+        <v>26.7</v>
       </c>
       <c r="S22" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4543,119 +4499,119 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
         <v>0.13</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="AB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.5</v>
+        <v>1.7</v>
       </c>
       <c r="AH22" t="n">
-        <v>5454</v>
+        <v>8624</v>
       </c>
       <c r="AI22" t="n">
-        <v>1933</v>
+        <v>2817</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="AM22" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="AO22" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB22" t="n">
         <v>6</v>
       </c>
-      <c r="AV22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>12</v>
-      </c>
       <c r="BC22" t="n">
         <v>0</v>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>2023-04-16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4663,14 +4619,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4680,14 +4634,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -4695,34 +4649,34 @@
         </is>
       </c>
       <c r="L23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.5</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.4</v>
-      </c>
       <c r="N23" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O23" t="n">
-        <v>12244</v>
+        <v>41304</v>
       </c>
       <c r="P23" t="n">
         <v>12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R23" t="n">
-        <v>8.300000000000001</v>
+        <v>58.3</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4731,119 +4685,119 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z23" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AA23" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AH23" t="n">
+        <v>5454</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1933</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>31</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>7</v>
       </c>
-      <c r="AC23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>6872</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>2284</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>52</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>9</v>
-      </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BC23" t="n">
         <v>0</v>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Corinthians</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4851,14 +4805,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E24" t="n">
+        <v>23</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4868,14 +4820,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -4883,34 +4835,34 @@
         </is>
       </c>
       <c r="L24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M24" t="n">
         <v>1.4</v>
       </c>
-      <c r="M24" t="n">
-        <v>2.4</v>
-      </c>
       <c r="N24" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O24" t="n">
-        <v>34019</v>
+        <v>12244</v>
       </c>
       <c r="P24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>35.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -4919,119 +4871,119 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24" t="n">
         <v>7</v>
       </c>
       <c r="AC24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD24" t="n">
-        <v>71.40000000000001</v>
+        <v>57.1</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="AH24" t="n">
-        <v>6198</v>
+        <v>6872</v>
       </c>
       <c r="AI24" t="n">
-        <v>2172</v>
+        <v>2284</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA24" t="n">
         <v>6</v>
       </c>
-      <c r="AZ24" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>2</v>
-      </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5039,10 +4991,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E25" t="n">
+        <v>10</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5056,14 +5006,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5071,32 +5021,34 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="N25" t="n">
-        <v>55</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="O25" t="n">
+        <v>34019</v>
+      </c>
       <c r="P25" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>35.7</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -5105,119 +5057,119 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>-1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AB25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC25" t="n">
         <v>5</v>
       </c>
-      <c r="AC25" t="n">
-        <v>4</v>
-      </c>
       <c r="AD25" t="n">
-        <v>80</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
       </c>
       <c r="AF25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>6198</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2172</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="n">
         <v>0.8</v>
       </c>
-      <c r="AG25" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>6724</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>2195</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AL25" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AM25" t="n">
         <v>8</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW25" t="n">
         <v>3</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>2</v>
       </c>
       <c r="BB25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Bahia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5225,14 +5177,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E26" t="n">
+        <v>14</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5249,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5260,22 +5210,20 @@
         <v>1.3</v>
       </c>
       <c r="M26" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="N26" t="n">
-        <v>48</v>
-      </c>
-      <c r="O26" t="n">
-        <v>4295</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -5296,7 +5244,7 @@
         <v>1.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="Z26" t="n">
         <v>-1.3</v>
@@ -5305,28 +5253,28 @@
         <v>-1.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC26" t="n">
         <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AG26" t="n">
-        <v>-1.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AH26" t="n">
-        <v>5975</v>
+        <v>6724</v>
       </c>
       <c r="AI26" t="n">
-        <v>2406</v>
+        <v>2195</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
@@ -5335,60 +5283,246 @@
         <v>1.2</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR26" t="n">
         <v>4</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>1</v>
       </c>
       <c r="AS26" t="n">
         <v>3</v>
       </c>
       <c r="AT26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-05-14</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Série A</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N27" t="n">
+        <v>48</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4295</v>
+      </c>
+      <c r="P27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>5975</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2406</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>33</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT27" t="n">
         <v>27</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AU27" t="n">
         <v>6</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AV27" t="n">
         <v>25</v>
       </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
         <v>14</v>
       </c>
-      <c r="AY26" t="n">
+      <c r="AY27" t="n">
         <v>8</v>
       </c>
-      <c r="AZ26" t="n">
+      <c r="AZ27" t="n">
         <v>7</v>
       </c>
-      <c r="BA26" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB26" t="n">
+      <c r="BA27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB27" t="n">
         <v>7</v>
       </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="inlineStr">
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="inlineStr">
         <is>
           <t>America (MG)</t>
         </is>

--- a/dados/historico/times/rodada_26/Cruzeiro.xlsx
+++ b/dados/historico/times/rodada_26/Cruzeiro.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>386</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>13</v>
+        <v>429</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8</v>
+        <v>499</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
